--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/15/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.78669999999998</v>
+        <v>-20.87729999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.59460000000001</v>
+        <v>-22.62300000000002</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.3385</v>
+        <v>-20.29089999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.2257</v>
+        <v>-7.415999999999997</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.187099999999999</v>
+        <v>-7.232800000000002</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.650999999999994</v>
+        <v>-8.704299999999993</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.4775</v>
+        <v>-21.57729999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.40929999999999</v>
+        <v>-20.28989999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.502399999999995</v>
+        <v>-7.389799999999991</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.992999999999996</v>
+        <v>-7.780099999999996</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,7 +811,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.051600000000002</v>
+        <v>-8.053000000000003</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.224499999999998</v>
+        <v>-7.329199999999997</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.08279999999999</v>
+        <v>-22.0717</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.42489999999998</v>
+        <v>-21.28599999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.2626</v>
+        <v>-7.382700000000001</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.11379999999999</v>
+        <v>-21.15499999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.912699999999998</v>
+        <v>-7.850800000000001</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.68540000000001</v>
+        <v>-20.75300000000001</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.5274</v>
+        <v>-8.450400000000002</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.1845</v>
+        <v>-8.222</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.125800000000002</v>
+        <v>-7.259399999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.660099999999997</v>
+        <v>-7.610599999999997</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.647</v>
+        <v>-21.71409999999998</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.365199999999993</v>
+        <v>-8.621499999999996</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.044999999999995</v>
+        <v>-7.984699999999998</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.08540000000001</v>
+        <v>-22.1657</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.500900000000001</v>
+        <v>-7.585599999999995</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.12969999999999</v>
+        <v>-22.0702</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.51810000000001</v>
+        <v>-22.60530000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.85039999999999</v>
+        <v>-21.9482</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.0528</v>
+        <v>-22.0767</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.4208</v>
+        <v>-21.4249</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1559,7 +1559,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.310500000000003</v>
+        <v>-7.374199999999999</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.465400000000002</v>
+        <v>-6.353800000000001</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.51910000000001</v>
+        <v>-20.45839999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.59249999999998</v>
+        <v>-21.83269999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.349400000000002</v>
+        <v>-6.428700000000003</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.913100000000004</v>
+        <v>-8.921100000000003</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.60500000000001</v>
+        <v>-21.6254</v>
       </c>
       <c r="B92" t="n">
         <v>6.16</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.446800000000004</v>
+        <v>-6.455100000000003</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.512300000000003</v>
+        <v>-8.541500000000003</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.8699</v>
+        <v>-21.8555</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
